--- a/biology/Zoologie/Écorceur_caronculé/Écorceur_caronculé.xlsx
+++ b/biology/Zoologie/Écorceur_caronculé/Écorceur_caronculé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89corceur_caroncul%C3%A9</t>
+          <t>Écorceur_caronculé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Écorceur caronculé (Eulacestoma nigropectus) est une espèce de passereaux, la seule du genre Eulacestoma et de la famille des Eulacestomidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89corceur_caroncul%C3%A9</t>
+          <t>Écorceur_caronculé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89corceur_caroncul%C3%A9</t>
+          <t>Écorceur_caronculé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Nouvelle-Guinée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89corceur_caroncul%C3%A9</t>
+          <t>Écorceur_caronculé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Écorceur caronculé vit dans les forêts tropicales humides de montagne, au centre de l'île[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Écorceur caronculé vit dans les forêts tropicales humides de montagne, au centre de l'île.
 </t>
         </is>
       </c>
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89corceur_caroncul%C3%A9</t>
+          <t>Écorceur_caronculé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,7 +617,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études phylogéniques d'Aggerbeck et al. (2014) et Schodde &amp; Christidis (2014) montrent que cette espèce est une parente éloignée des néosittes de la famille des Neosittidae.
 En conséquence, le Congrès ornithologique international (classification version 4.3, 2014) la déplace de sa position taxinomique incertaine dans laquelle il l'avait placée (incertae sedis) et la place près de cette dernière famille, dans sa propre famille, les Eulacestomidae.
